--- a/Computer Codes/Jupyter/Eurofer/Eurofer_data.xlsx
+++ b/Computer Codes/Jupyter/Eurofer/Eurofer_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\Repos\ZapRepo\Computer Codes\Jupyter\Eurofer\Eurofer_Physical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes_QF\Computer Codes\Jupyter\Eurofer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C4C62F-DC54-4B8D-AE96-E78AED841963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A41598-8CF6-4F28-8100-11BE071F6E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="0" windowWidth="19380" windowHeight="20880" firstSheet="5" activeTab="5" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="8" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="Eurofer_diffusivity" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>Temp (K)</t>
   </si>
@@ -343,6 +343,183 @@
   <si>
     <t>Normal Emissivity</t>
   </si>
+  <si>
+    <t>Temp (C)</t>
+  </si>
+  <si>
+    <t>SpecificHeat (J/kg-K)</t>
+  </si>
+  <si>
+    <t>EUROFER 97</t>
+  </si>
+  <si>
+    <t>Fig. 1.Chun, Y. B., D. W. Lee, and C. K. Rhee. "Physical, thermal, magnetic and mechanical properties of ARAA." Transactions of the Korean Nuclear Society Spring Meeting, Gyeongju, Korea. 2015.</t>
+  </si>
+  <si>
+    <t>Fig. 1 Chun, Y. B., D. W. Lee, and C. K. Rhee. "Physical, thermal, magnetic and mechanical properties of ARAA." Transactions of the Korean Nuclear Society Spring Meeting, Gyeongju, Korea. 2015.</t>
+  </si>
+  <si>
+    <t>Temp ( C )</t>
+  </si>
+  <si>
+    <t>ThermalConductivity (W/mK)</t>
+  </si>
+  <si>
+    <t>EUROFER97-Sy</t>
+  </si>
+  <si>
+    <t>Ultimate Tensile Strength (MPa)</t>
+  </si>
+  <si>
+    <t>EUROFER97-Su</t>
+  </si>
+  <si>
+    <t>Fig. 1. of Aiello, G., et al. "Assessment of design limits and criteria requirements for Eurofer structures in TBM components." Journal of Nuclear Materials 414.1 (2011): 53-68.</t>
+  </si>
+  <si>
+    <t>EUROFER97-Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cycles to failure </t>
+  </si>
+  <si>
+    <r>
+      <t>Total Strain Range (Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>EUROFER97-Average</t>
+  </si>
+  <si>
+    <t>Fig. 8. of Aiello, G., et al. "Assessment of design limits and criteria requirements for Eurofer structures in TBM components." Journal of Nuclear Materials 414.1 (2011): 53-68.</t>
+  </si>
+  <si>
+    <t>Time (h)</t>
+  </si>
+  <si>
+    <t>EUROFER97-600C</t>
+  </si>
+  <si>
+    <t>Stress Intensity St (MPa)</t>
+  </si>
+  <si>
+    <t>EUROFER97-550C</t>
+  </si>
+  <si>
+    <t>EUROFER97-500C</t>
+  </si>
+  <si>
+    <t>EUROFER97-450C</t>
+  </si>
+  <si>
+    <t>Fig. 6. of Aiello, G., et al. "Assessment of design limits and criteria requirements for Eurofer structures in TBM components." Journal of Nuclear Materials 414.1 (2011): 53-68.</t>
+  </si>
+  <si>
+    <t>EUROFER97-RoomTemp</t>
+  </si>
+  <si>
+    <t>Fig. 3. of Roldán, M., et al. "Deformation behaviour and microstructural evolution of EUROFER97-2 under low cycle fatigue conditions." Materials Characterization 158 (2019): 109943.</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Tensile Strength (MPa)</t>
+  </si>
+  <si>
+    <t>EUROFER97-979.1h51'</t>
+  </si>
+  <si>
+    <t>Fig. 18. Rieth, Michael, et al. "EUROFER 97. Tensile, charpy, creep and structural tests." (2003).</t>
+  </si>
+  <si>
+    <t>EUROFER97-SSTTSpecimens</t>
+  </si>
+  <si>
+    <t>EUROFER97-LargeSpecimens</t>
+  </si>
+  <si>
+    <t>Fig. 2.  Gaganidze, Ermile, et al. "Development of EUROFER97 database and material property handbook." Fusion Engineering and Design 135 (2018): 9-14.</t>
+  </si>
+  <si>
+    <t>EUROFER97-650C</t>
+  </si>
+  <si>
+    <r>
+      <t>Fig. 7. Gaganidze, Ermile, et al. "Development of EUROFER97 database and material property handbook." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fusion Engineering and Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 135 (2018): 9-14.</t>
+    </r>
+  </si>
+  <si>
+    <t>EUROFER97 ODS-Sy</t>
+  </si>
+  <si>
+    <t>EUROFER97 ODS-Su</t>
+  </si>
+  <si>
+    <t>Table. 6.Das, Aniruddh, et al. "Microstructure and fracture toughness characterization of three 9Cr ODS EUROFER steels with different thermo-mechanical treatments." Journal of Nuclear Materials 542 (2020): 152464.</t>
+  </si>
+  <si>
+    <t>Elastic Modulus (Gpa)</t>
+  </si>
+  <si>
+    <t>Eurofer E</t>
+  </si>
+  <si>
+    <t>Figure A3.S18E.2.2.1. Tavassoli, F. "DEMO interim structural design criteria." DISIC, Appendix a material design limit data, CEA/Saclay (2002).</t>
+  </si>
+  <si>
+    <t>EUROFER97-AsReceived</t>
+  </si>
+  <si>
+    <t>EUROFER97-Aged650C</t>
+  </si>
+  <si>
+    <t>EUROFER97-Aged700C</t>
+  </si>
+  <si>
+    <t>Uniform Elongation (%)</t>
+  </si>
+  <si>
+    <t>Fig. 3. Van der Schaaf, B., et al. "The development of EUROFER reduced activation steel." Fusion Engineering and Design 69.1-4 (2003): 197-203.</t>
+  </si>
 </sst>
 </file>
 
@@ -350,9 +527,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +583,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,10 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,23 +641,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,6 +753,236 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305616</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A8A761-650A-725B-4F31-BD451EF88589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="5849166" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981526B9-668A-65F8-74B4-C150F9688849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="3048001"/>
+          <a:ext cx="4162425" cy="3282696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314127</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219C5FFA-B928-0A57-61A2-DB9CADB246B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="4810125"/>
+          <a:ext cx="3562152" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62985854-7A86-EAF4-9E4E-8F168EDCE438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="4800601"/>
+          <a:ext cx="3752850" cy="2799302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CEF850-4CAF-34BC-1649-C6B93D40FB2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553950" y="7439025"/>
+          <a:ext cx="4505325" cy="3240985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -592,6 +1035,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581340</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01F7AF8-F1B2-ECC9-B5E6-083E5D4A04D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="5905500"/>
+          <a:ext cx="2257740" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -600,15 +1087,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>17084</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161521</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -637,8 +1124,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2963484"/>
-          <a:ext cx="3562350" cy="2538387"/>
+          <a:off x="19050" y="3646109"/>
+          <a:ext cx="3384550" cy="2620937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276849</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>248081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38550B33-9AA8-981F-8737-DC91A75E2995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3638550"/>
+          <a:ext cx="4467849" cy="3086531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1008,14 +1539,63 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289879</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912C53A5-165C-C574-3A56-CA8FA8144A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2857500"/>
+          <a:ext cx="3585529" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>62812</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165354</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1044,8 +1624,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4146550"/>
-          <a:ext cx="3593412" cy="2648204"/>
+          <a:off x="0" y="4667250"/>
+          <a:ext cx="2924000" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157529</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88485F6E-ED0C-102A-CD2D-6C5E4ADED1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="4610101"/>
+          <a:ext cx="3481754" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC360AAE-413A-E431-994D-AE30DE4CC43F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="4572000"/>
+          <a:ext cx="4314825" cy="2849865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BCFB11-82BC-8558-5B23-9C4F040934E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="4572000"/>
+          <a:ext cx="3762900" cy="1267002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,7 +1769,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1101,6 +1813,94 @@
         <a:xfrm>
           <a:off x="0" y="4311650"/>
           <a:ext cx="3879792" cy="2863914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>115529</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E124C8-4A87-F80B-AE74-99F3A3CDAF34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16783050" y="4552950"/>
+          <a:ext cx="4287479" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B13C2B0-FDD2-7F0C-2FE0-26DDDFEE6F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="4343400"/>
+          <a:ext cx="3590925" cy="3098711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,116 +2231,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8953B6-FF81-4C42-8C9F-1BD7638290AD}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.6328125" customWidth="1"/>
+    <col min="1" max="26" width="12.5703125" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="45.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>295.59585492227899</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>8.1640711902113403E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>322.79792746113901</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>8.0789766407119004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>373.31606217616502</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>7.7536151279199106E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>472.79792746113901</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>7.5784204671857605E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>573.05699481865202</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>7.0728587319243599E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>673.31606217616502</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>6.4822024471635098E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>772.79792746114003</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>5.8014460511679598E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>873.05699481865202</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>5.0255839822024397E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" xr:uid="{E2B7BB1F-C0DA-4D6F-B5AD-418EDB3D2CDE}"/>
@@ -1553,27 +2356,1333 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="M1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>123.97806</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>161.47684000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>205.79383000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>250.68169</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>95.557891687808393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>113.80448</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>151.87212</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>195.62226999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>239.94059999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>88.682804290936701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>103.06742</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>140.56755000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>183.74884</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>229.77239</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>81.200483429553103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>300</v>
+      </c>
+      <c r="B7" s="2">
+        <v>92.893839999999997</v>
+      </c>
+      <c r="D7" s="2">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>130.96281999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>174.14411000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>218.46244999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>74.529005773187606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>82.726309999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>120.22642999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>163.97658000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <v>208.29424</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>66.640813839669093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>73.121589999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>111.18989000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>154.94004000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K9">
+        <v>200.39541</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N9">
+        <v>60.172496454184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>64.090419999999995</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>101.02303000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H10">
+        <v>143.06729000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K10">
+        <v>189.09083999999999</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N10">
+        <v>52.487914261171703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>55.053879999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E11">
+        <v>91.986490000000003</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H11">
+        <v>134.59826000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K11">
+        <v>179.48612</v>
+      </c>
+      <c r="M11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N11">
+        <v>45.612377394674198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44.884999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E12">
+        <v>81.817620000000005</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H12">
+        <v>125.56708999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K12">
+        <v>168.74973</v>
+      </c>
+      <c r="M12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N12">
+        <v>37.927795201662001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36.984830000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E13">
+        <v>72.212890000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H13">
+        <v>115.39485999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="K13">
+        <v>159.71319</v>
+      </c>
+      <c r="M13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="N13">
+        <v>30.849547533909899</v>
+      </c>
+    </row>
+    <row r="32" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+    </row>
+    <row r="34" spans="1:23" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="M34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="15"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M32:W32"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A34:K34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="P52" sqref="P52:T52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="13.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="11" width="14.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="14" width="14.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="17" width="15.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="20" width="15.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="M1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="S1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4.8638199999999996</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.9923000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100.27548</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.9667599999999998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>649.06276000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.8084499999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>389.44281000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.80583</v>
+      </c>
+      <c r="M4" s="2">
+        <v>392.51535999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.4988300000000001</v>
+      </c>
+      <c r="P4">
+        <v>583.88394089927999</v>
+      </c>
+      <c r="Q4">
+        <v>1.1948529411764699</v>
+      </c>
+      <c r="S4">
+        <v>748.80674529736302</v>
+      </c>
+      <c r="T4">
+        <v>1.81249999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9.9451300000000007</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.3362699999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>196.74641</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.3191199999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1056.55178</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.4043699999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>554.66057999999998</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.8005800000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>563.44722000000002</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.49621</v>
+      </c>
+      <c r="P5">
+        <v>612.06101462434697</v>
+      </c>
+      <c r="Q5">
+        <v>1.1985294117647001</v>
+      </c>
+      <c r="S5">
+        <v>1306.06979726699</v>
+      </c>
+      <c r="T5">
+        <v>1.61029411764705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>24.994789999999998</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.98115</v>
+      </c>
+      <c r="D6" s="2">
+        <v>494.47662000000003</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.99858</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1161.0379499999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.4043699999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>680.40030999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.4017500000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1073.2891099999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.00292</v>
+      </c>
+      <c r="P6">
+        <v>781.37073765180799</v>
+      </c>
+      <c r="Q6">
+        <v>1.1948529411764699</v>
+      </c>
+      <c r="S6">
+        <v>1740.58917605376</v>
+      </c>
+      <c r="T6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>48.371310000000001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.38035</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1011.06476</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.38289</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4891.2492599999996</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.0055400000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>759.53200000000004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.4017500000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>895.81520999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.00292</v>
+      </c>
+      <c r="P7">
+        <v>811.30410511638104</v>
+      </c>
+      <c r="Q7">
+        <v>1.1948529411764699</v>
+      </c>
+      <c r="S7">
+        <v>1609.1726444379301</v>
+      </c>
+      <c r="T7">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>100.27548</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.97526999999999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1983.76873</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.98385</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5208.6305000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.00292</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1098.89357</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.00292</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2044.46747</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.70116999999999996</v>
+      </c>
+      <c r="P8">
+        <v>636.73919587449495</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1719.07220185857</v>
+      </c>
+      <c r="T8">
+        <v>1.41911764705882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>252.01924</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.67491000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4917.6347900000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.67144000000000004</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4381.6554599999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.80086999999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1326.9876899999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.99766999999999995</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3434.28377</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.69854000000000005</v>
+      </c>
+      <c r="P9">
+        <v>768.41217558794494</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1801.7821533281799</v>
+      </c>
+      <c r="T9">
+        <v>1.41911764705882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>494.47662000000003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.52927999999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9917.80969</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.53393999999999997</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5127.4048599999996</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.80086999999999997</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1615.06917</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.80086999999999997</v>
+      </c>
+      <c r="M10" s="2">
+        <v>16535.983649999998</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.39942</v>
+      </c>
+      <c r="P10">
+        <v>944.90937099960297</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>2016.33098846292</v>
+      </c>
+      <c r="T10">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>50270.617209999997</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.18695000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20279.114369999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.45202999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>19198.904600000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.59882999999999997</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2143.1768999999999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.80086999999999997</v>
+      </c>
+      <c r="M11" s="2">
+        <v>20125.851610000002</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.40204000000000001</v>
+      </c>
+      <c r="P11">
+        <v>1229.3509193658299</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>2410.19855160409</v>
+      </c>
+      <c r="T11">
+        <v>1.40808823529411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>98633.9179</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.16849</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50966.866450000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.37224000000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>27559.608100000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.60145999999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5007.93523</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.60407999999999995</v>
+      </c>
+      <c r="P12">
+        <v>1312.9473135948999</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>2730.2000972535602</v>
+      </c>
+      <c r="T12">
+        <v>1.2242647058823499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>207303.64079999999</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.15944</v>
+      </c>
+      <c r="D13" s="2">
+        <v>98633.9179</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.34255999999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>145821.82376999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.39942</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5374.9623499999998</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.60407999999999995</v>
+      </c>
+      <c r="P13">
+        <v>1157.7784193381201</v>
+      </c>
+      <c r="Q13">
+        <v>0.90441176470588203</v>
+      </c>
+      <c r="S13">
+        <v>2536.65675253875</v>
+      </c>
+      <c r="T13">
+        <v>1.01838235294117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>506872.17005999997</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.15089</v>
+      </c>
+      <c r="D14" s="2">
+        <v>207303.64079999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.31968999999999997</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14242.41439</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.39417000000000002</v>
+      </c>
+      <c r="P14">
+        <v>1224.94121137616</v>
+      </c>
+      <c r="Q14">
+        <v>0.90441176470588203</v>
+      </c>
+      <c r="S14">
+        <v>1702.9915183671101</v>
+      </c>
+      <c r="T14">
+        <v>0.91911764705882304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.14887</v>
+      </c>
+      <c r="D15" s="2">
+        <v>506872.17005999997</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.30465999999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>18899.508580000002</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.39678999999999998</v>
+      </c>
+      <c r="P15">
+        <v>1308.23774355467</v>
+      </c>
+      <c r="Q15">
+        <v>0.90441176470588203</v>
+      </c>
+      <c r="S15">
+        <v>3714.7361417223001</v>
+      </c>
+      <c r="T15">
+        <v>0.91544117647058798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>1008287.14299</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.29436000000000001</v>
+      </c>
+      <c r="P16">
+        <v>1534.6678876462599</v>
+      </c>
+      <c r="Q16">
+        <v>0.90073529411764697</v>
+      </c>
+      <c r="S16">
+        <v>3833.12887763252</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1608.5055696074701</v>
+      </c>
+      <c r="Q17">
+        <v>0.90073529411764697</v>
+      </c>
+      <c r="S17">
+        <v>5742.0057816039198</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>1254.92984463937</v>
+      </c>
+      <c r="Q18">
+        <v>0.79779411764705799</v>
+      </c>
+      <c r="S18">
+        <v>5976.8256640724103</v>
+      </c>
+      <c r="T18">
+        <v>0.81617647058823495</v>
+      </c>
+    </row>
+    <row r="19" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>1352.9212213830299</v>
+      </c>
+      <c r="Q19">
+        <v>0.79779411764705799</v>
+      </c>
+      <c r="S19">
+        <v>6323.5416612087201</v>
+      </c>
+      <c r="T19">
+        <v>0.81617647058823495</v>
+      </c>
+    </row>
+    <row r="20" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>1472.54042762412</v>
+      </c>
+      <c r="Q20">
+        <v>0.80147058823529405</v>
+      </c>
+      <c r="S20">
+        <v>7488.0674529736598</v>
+      </c>
+      <c r="T20">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="21" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>1528.95166956412</v>
+      </c>
+      <c r="Q21">
+        <v>0.80147058823529405</v>
+      </c>
+      <c r="S21">
+        <v>9563.3983239047193</v>
+      </c>
+      <c r="T21">
+        <v>0.81985294117647001</v>
+      </c>
+    </row>
+    <row r="22" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>1663.9047110839299</v>
+      </c>
+      <c r="Q22">
+        <v>0.80147058823529405</v>
+      </c>
+      <c r="S22">
+        <v>12207.1602508218</v>
+      </c>
+      <c r="T22">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="23" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>1551.94508748353</v>
+      </c>
+      <c r="Q23">
+        <v>0.69852941176470495</v>
+      </c>
+      <c r="S23">
+        <v>14786.5871461324</v>
+      </c>
+      <c r="T23">
+        <v>0.66176470588235303</v>
+      </c>
+    </row>
+    <row r="24" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>2156.4207065729001</v>
+      </c>
+      <c r="Q24">
+        <v>0.69852941176470495</v>
+      </c>
+      <c r="S24">
+        <v>8238.4657120067095</v>
+      </c>
+      <c r="T24">
+        <v>0.60294117647058798</v>
+      </c>
+    </row>
+    <row r="25" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>2273.3309522936602</v>
+      </c>
+      <c r="Q25">
+        <v>0.60294117647058798</v>
+      </c>
+      <c r="S25">
+        <v>18692.555012952402</v>
+      </c>
+      <c r="T25">
+        <v>0.39705882352941102</v>
+      </c>
+    </row>
+    <row r="26" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>2450.8443254601498</v>
+      </c>
+      <c r="Q26">
+        <v>0.60294117647058798</v>
+      </c>
+      <c r="S26">
+        <v>39816.219690321501</v>
+      </c>
+      <c r="T26">
+        <v>0.51102941176470495</v>
+      </c>
+    </row>
+    <row r="27" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>3099.5348132387398</v>
+      </c>
+      <c r="Q27">
+        <v>0.59926470588235303</v>
+      </c>
+      <c r="S27">
+        <v>51317.336303874203</v>
+      </c>
+      <c r="T27">
+        <v>0.51102941176470495</v>
+      </c>
+    </row>
+    <row r="28" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>5296.0195526859297</v>
+      </c>
+      <c r="Q28">
+        <v>0.59926470588235303</v>
+      </c>
+      <c r="S28">
+        <v>105815.629503509</v>
+      </c>
+      <c r="T28">
+        <v>0.51102941176470495</v>
+      </c>
+    </row>
+    <row r="29" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>5090.0575080803101</v>
+      </c>
+      <c r="Q29">
+        <v>0.54411764705882304</v>
+      </c>
+    </row>
+    <row r="30" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>5324.6432593392001</v>
+      </c>
+      <c r="Q30">
+        <v>0.49264705882352899</v>
+      </c>
+    </row>
+    <row r="31" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>7126.5797989979101</v>
+      </c>
+      <c r="Q31">
+        <v>0.496323529411764</v>
+      </c>
+    </row>
+    <row r="32" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>8205.51119349898</v>
+      </c>
+      <c r="Q32">
+        <v>0.496323529411764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>12154.970287534299</v>
+      </c>
+      <c r="Q33">
+        <v>0.44852941176470501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>25018.3868587463</v>
+      </c>
+      <c r="Q34">
+        <v>0.40073529411764702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="G39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="52" spans="16:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1585,7 +3694,7 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1595,248 +3704,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234A6B1F-5943-445E-8C13-06397E85A588}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.6328125" customWidth="1"/>
+    <col min="1" max="26" width="12.5703125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>296.10389610389598</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>448.39537869062798</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="D4" s="2">
+        <v>20.54795</v>
+      </c>
+      <c r="E4" s="2">
+        <v>454.68159000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>322.72727272727201</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>461.48908857509599</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="D5" s="2">
+        <v>53.424660000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>467.34913999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>348.05194805194799</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>475.35301668806102</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>488.52064999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>373.376623376623</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>485.36585365853603</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="D7" s="2">
+        <v>152.05479</v>
+      </c>
+      <c r="E7" s="2">
+        <v>509.65287000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>398.05194805194799</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>496.14890885750901</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="D8" s="2">
+        <v>201.36985999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>522.20258000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>423.376623376623</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>504.621309370988</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="D9" s="2">
+        <v>250.68493000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>543.35445000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>447.402597402597</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>513.86392811296503</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="D10" s="2">
+        <v>300</v>
+      </c>
+      <c r="E10" s="2">
+        <v>551.60307999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>472.72727272727201</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>521.56611039794598</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="D11" s="2">
+        <v>349.31506999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>572.75495000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>498.05194805194799</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>530.03851091142405</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="D12" s="2">
+        <v>398.63013999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>585.30466000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>522.72727272727195</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>536.97047496790697</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="D13" s="2">
+        <v>450.68493000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>610.73796000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>548.05194805194799</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>544.67265725288803</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="D14" s="2">
+        <v>500</v>
+      </c>
+      <c r="E14" s="2">
+        <v>653.39520000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>572.72727272727195</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>550.83440308087199</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="D15" s="2">
+        <v>549.31506999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>721.85888999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>598.05194805194799</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>556.99614890885698</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="D16" s="2">
+        <v>598.63013999999998</v>
+      </c>
+      <c r="E16" s="2">
+        <v>803.22581000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>622.72727272727195</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>565.46854942233597</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="D17" s="2">
+        <v>647.94520999999997</v>
+      </c>
+      <c r="E17" s="2">
+        <v>901.79701999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>648.05194805194799</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>573.17073170731703</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="D18" s="2">
+        <v>700</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1026.1550500000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>673.376623376623</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>583.95378690629002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>698.05194805194799</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>597.04749679075701</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>722.72727272727195</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>611.68164313221996</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>747.40259740259705</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>628.62644415917805</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>773.376623376623</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>655.58408215661098</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>797.40259740259705</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>687.16302952503202</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>822.72727272727195</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>721.05263157894694</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>847.40259740259705</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>764.18485237483901</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>872.72727272727195</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>801.155327342747</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="47" spans="1:25" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y36" s="7"/>
+    </row>
+    <row r="47" spans="1:25" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="B47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A49" r:id="rId1" xr:uid="{CF2E83ED-B975-4E0D-864F-B6E5F8FC4585}"/>
@@ -1848,125 +4055,224 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.6328125" customWidth="1"/>
+    <col min="1" max="26" width="12.5703125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>295.83333333333297</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>28.330097087378601</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="D4" s="2">
+        <v>20.54795</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28.158940000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>322.61904761904702</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>28.932038834951399</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="D5" s="2">
+        <v>50.684930000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>28.887419999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>372.61904761904702</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>29.194174757281498</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="D6" s="2">
+        <v>102.73972999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>29.748339999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>473.21428571428498</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>30.6699029126213</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="D7" s="2">
+        <v>152.05479</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30.27815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>572.61904761904702</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>30.194174757281498</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="D8" s="2">
+        <v>201.36985999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>30.344370000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>672.61904761904702</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>29.330097087378601</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="D9" s="2">
+        <v>253.42465999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30.211919999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>772.61904761904702</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>29.446601941747499</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="D10" s="2">
+        <v>300</v>
+      </c>
+      <c r="E10" s="2">
+        <v>29.947019999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>872.61904761904702</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>31.174757281553301</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="D11" s="2">
+        <v>352.05479000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29.682120000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>401.36986000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>29.483440000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>450.68493000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>29.350989999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>502.73973000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>29.61589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>552.05479000000003</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30.079470000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>601.36986000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>31.13907</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:22" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="V37" s="4"/>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V39" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1" xr:uid="{7FC28E87-51CA-4509-BEAB-A0CCB56EBA75}"/>
+    <hyperlink ref="A35" r:id="rId1" xr:uid="{7FC28E87-51CA-4509-BEAB-A0CCB56EBA75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1977,33 +4283,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14F85A-DEBE-455F-A23B-C51456BB79FE}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="10"/>
+    <col min="4" max="4" width="16.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,207 +4321,209 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>303.31797235022998</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>51.077844311377198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>327.64976958525301</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>54.550898203592801</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>344.23963133640501</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>56.467065868263397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>365.806451612903</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>59.101796407185603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>396.22119815668202</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>62.814371257485</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>423.31797235022998</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>66.407185628742496</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>450.41474654377799</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>69.281437125748496</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>467.00460829492999</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>71.437125748502893</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>497.41935483870901</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <v>75.508982035928099</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>523.41013824884703</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>77.425149700598794</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>545.52995391704997</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <v>81.137724550898199</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>577.05069124423903</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <v>84.730538922155603</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>601.935483870967</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <v>87.245508982035901</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>657.78801843317899</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <v>93.473053892215503</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>682.11981566820202</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <v>96.227544910179603</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>708.11059907834101</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>99.580838323353206</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>734.65437788018403</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <v>102.57485029940101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>763.41013824884703</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>105.808383233532</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>783.87096774193503</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>107.96407185628701</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>817.05069124423903</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <v>111.19760479041901</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>850.23041474654303</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <v>114.19161676646701</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>883.963133640553</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="10">
         <v>117.425149700598</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>924.88479262672797</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>121.377245508982</v>
       </c>
     </row>
-    <row r="37" spans="22:22" x14ac:dyDescent="0.35">
-      <c r="V37" s="4"/>
-    </row>
-    <row r="53" spans="1:1" ht="174" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+    <row r="37" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V37" s="12"/>
+    </row>
+    <row r="53" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A55" r:id="rId1" xr:uid="{D4E2A74C-0127-406E-ACD5-8F6231DDCC7B}"/>
@@ -2225,112 +4535,105 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B553CE-D45D-4700-B33F-6A1DCAC4DB71}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>100</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="13">
         <v>10.6898734177215</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>200</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="13">
         <v>11.0443037974683</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>300</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="13">
         <v>11.386075949366999</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>400</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="13">
         <v>11.6962025316455</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>500</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="13">
         <v>11.987341772151799</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>600</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="13">
         <v>12.246835443037901</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>700</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>12.487341772151799</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="261" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" xr:uid="{EE76A9AE-0D16-4A07-9DDA-EEEE5597FE33}"/>
+    <hyperlink ref="A40" r:id="rId1" xr:uid="{EE76A9AE-0D16-4A07-9DDA-EEEE5597FE33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2339,43 +4642,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73F6F46-AAA6-4839-9EF2-18966D033E04}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2394,147 +4691,178 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>473.100871731008</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>0.18008048289738399</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>430.13698630136901</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>0.116901408450704</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>423</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>0.117272727272727</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>8.3535353535353393E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>573.22540473225399</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>0.21468812877263499</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>524.28393524283899</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>0.12897384305835</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>523</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>0.129191919191919</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>0.10090909090909</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>672.97633872976303</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>0.24527162977867201</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>624.03486924034803</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>0.14265593561368201</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>623</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>0.14272727272727201</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>0.12030303030303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>772.72727272727195</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>0.27384305835009998</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>724.90660024906595</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>0.15633802816901399</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>723</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>0.15626262626262599</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>0.14070707070707</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>872.851805728518</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>0.30201207243460698</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>820.92154420921497</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>0.17645875251508999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>823</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>0.17626262626262601</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <v>0.16292929292929201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="33" spans="1:11" ht="199.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="K33:N33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:I33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{BA9D3B74-4905-46E0-83D8-53DCA582D837}"/>
+    <hyperlink ref="A34" r:id="rId1" xr:uid="{BA9D3B74-4905-46E0-83D8-53DCA582D837}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2543,178 +4871,636 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1076AE9C-2C87-4A85-AE97-8A00D25B1C89}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>17.541148288385699</v>
+      </c>
+      <c r="B4" s="5">
+        <v>33.767998351492601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>147.82474306467799</v>
+      </c>
+      <c r="B5" s="5">
+        <v>32.228318264945997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>297.73587821652097</v>
+      </c>
+      <c r="B6" s="5">
+        <v>36.684439636298002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>447.708832393168</v>
+      </c>
+      <c r="B7" s="5">
+        <v>40.214563531926899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>498.24588517116098</v>
+      </c>
+      <c r="B8" s="5">
+        <v>33.211627128248601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>548.53566184993394</v>
+      </c>
+      <c r="B9" s="5">
+        <v>29.912680627463001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>599.16544316513398</v>
+      </c>
+      <c r="B10" s="5">
+        <v>21.520748010200101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>648.18792983540595</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20.538083095072398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>698.81771115060599</v>
+      </c>
+      <c r="B12" s="5">
+        <v>12.1461504778094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="P1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="S1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>547.85809906291797</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>511.72883999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>634.60653000000002</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2">
+        <v>682.89473684210498</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>886</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>50</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>525.368139223561</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="B6" s="11">
+      <c r="E5" s="2">
+        <v>476.28519999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>593.93268</v>
+      </c>
+      <c r="J5" s="2">
+        <v>291.21955373871498</v>
+      </c>
+      <c r="K5" s="2">
+        <v>552.63157894736798</v>
+      </c>
+      <c r="P5" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>727</v>
+      </c>
+      <c r="S5" s="2">
+        <v>300</v>
+      </c>
+      <c r="T5" s="2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" s="8">
         <v>508.76840696117802</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="D6" s="2">
         <v>150</v>
       </c>
-      <c r="B7" s="11">
+      <c r="E6" s="2">
+        <v>461.81124999999997</v>
+      </c>
+      <c r="G6" s="2">
+        <v>150</v>
+      </c>
+      <c r="H6" s="2">
+        <v>570.30980999999997</v>
+      </c>
+      <c r="J6" s="2">
+        <v>391.185487991824</v>
+      </c>
+      <c r="K6" s="2">
+        <v>507.89473684210498</v>
+      </c>
+      <c r="P6" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>741</v>
+      </c>
+      <c r="S6" s="2">
+        <v>400</v>
+      </c>
+      <c r="T6" s="2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>150</v>
+      </c>
+      <c r="B7" s="8">
         <v>494.846050870147</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="D7" s="2">
         <v>200</v>
       </c>
-      <c r="B8" s="11">
+      <c r="E7" s="2">
+        <v>452.56896</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>551.91571999999996</v>
+      </c>
+      <c r="J7" s="2">
+        <v>496.567876000681</v>
+      </c>
+      <c r="K7" s="2">
+        <v>426.31578947368399</v>
+      </c>
+      <c r="P7" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>537</v>
+      </c>
+      <c r="S7" s="2">
+        <v>500</v>
+      </c>
+      <c r="T7" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>200</v>
+      </c>
+      <c r="B8" s="8">
         <v>486.27844712182002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="D8" s="2">
         <v>250</v>
       </c>
-      <c r="B9" s="11">
+      <c r="E8" s="2">
+        <v>445.93817999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>250</v>
+      </c>
+      <c r="H8" s="2">
+        <v>534.82883000000004</v>
+      </c>
+      <c r="J8" s="2">
+        <v>595.80991313234495</v>
+      </c>
+      <c r="K8" s="2">
+        <v>293.42105263157799</v>
+      </c>
+      <c r="P8" s="2">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>330</v>
+      </c>
+      <c r="S8" s="2">
+        <v>600</v>
+      </c>
+      <c r="T8" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>250</v>
+      </c>
+      <c r="B9" s="8">
         <v>479.31726907630502</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="D9" s="2">
         <v>300</v>
       </c>
-      <c r="B10" s="11">
+      <c r="E9" s="2">
+        <v>436.69731999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>300</v>
+      </c>
+      <c r="H9" s="2">
+        <v>515.12753999999995</v>
+      </c>
+      <c r="J9" s="2">
+        <v>697.64946346448596</v>
+      </c>
+      <c r="K9" s="2">
+        <v>159.210526315789</v>
+      </c>
+      <c r="P9" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>163</v>
+      </c>
+      <c r="S9" s="2">
+        <v>700</v>
+      </c>
+      <c r="T9" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>300</v>
+      </c>
+      <c r="B10" s="8">
         <v>471.82061579651901</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="D10" s="2">
         <v>350</v>
       </c>
-      <c r="B11" s="11">
+      <c r="E10" s="2">
+        <v>427.45071999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>350</v>
+      </c>
+      <c r="H10" s="2">
+        <v>495.42626000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>350</v>
+      </c>
+      <c r="B11" s="8">
         <v>462.71753681392198</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="D11" s="2">
         <v>400</v>
       </c>
-      <c r="B12" s="11">
+      <c r="E11" s="2">
+        <v>410.36381999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>400</v>
+      </c>
+      <c r="H11" s="2">
+        <v>466.57317999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>400</v>
+      </c>
+      <c r="B12" s="8">
         <v>448.79518072289102</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="D12" s="2">
         <v>450</v>
       </c>
-      <c r="B13" s="11">
+      <c r="E12" s="2">
+        <v>388.04959000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>450</v>
+      </c>
+      <c r="H12" s="2">
+        <v>432.49275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>450</v>
+      </c>
+      <c r="B13" s="8">
         <v>427.376171352075</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="D13" s="2">
         <v>500</v>
       </c>
-      <c r="B14" s="11">
+      <c r="E13" s="2">
+        <v>353.96629000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>389.26197000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>500</v>
+      </c>
+      <c r="B14" s="8">
         <v>397.92503346720201</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="D14" s="2">
         <v>550</v>
       </c>
-      <c r="B15" s="11">
+      <c r="E14" s="2">
+        <v>310.73838999999998</v>
+      </c>
+      <c r="G14" s="2">
+        <v>550</v>
+      </c>
+      <c r="H14" s="2">
+        <v>339.49808999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>550</v>
+      </c>
+      <c r="B15" s="8">
         <v>355.62248995983902</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="D15" s="2">
         <v>600</v>
       </c>
-      <c r="B16" s="11">
+      <c r="E15" s="2">
+        <v>253.12702999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>600</v>
+      </c>
+      <c r="H15" s="2">
+        <v>276.65652999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>600</v>
+      </c>
+      <c r="B16" s="8">
         <v>299.93306559571602</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="D16" s="2">
         <v>650</v>
       </c>
-      <c r="B17" s="11">
+      <c r="E16" s="2">
+        <v>178.52502999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>650</v>
+      </c>
+      <c r="H16" s="2">
+        <v>199.44013000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>650</v>
+      </c>
+      <c r="B17" s="8">
         <v>228.17938420348</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="D17" s="2">
         <v>700</v>
       </c>
-      <c r="B18" s="11">
+      <c r="E17" s="2">
+        <v>81.697839999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>700</v>
+      </c>
+      <c r="H17" s="2">
+        <v>105.22734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>700</v>
+      </c>
+      <c r="B18" s="8">
         <v>137.14859437750999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="261" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:20" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="J39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="P39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+    </row>
+    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="P39:T39"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" xr:uid="{BD8505B1-6312-437D-81B2-778CAED7521D}"/>
+    <hyperlink ref="A40" r:id="rId1" xr:uid="{BD8505B1-6312-437D-81B2-778CAED7521D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2723,170 +5509,540 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96129535-FEF3-45F0-8A22-F7741A343589}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="6">
         <v>22.6382660687593</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4">
+        <v>777.659574468085</v>
+      </c>
+      <c r="G4">
+        <v>17.3458582745609</v>
+      </c>
+      <c r="H4" s="1">
+        <v>778.723404255319</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.42424781208637</v>
+      </c>
+      <c r="K4">
+        <v>777.659574468085</v>
+      </c>
+      <c r="L4">
+        <v>20.911317884588701</v>
+      </c>
+      <c r="M4">
+        <v>780.85106382978699</v>
+      </c>
+      <c r="N4">
+        <v>6.3164029317054897</v>
+      </c>
+      <c r="P4">
+        <v>782.97872340425499</v>
+      </c>
+      <c r="Q4">
+        <v>20.634741895335701</v>
+      </c>
+      <c r="R4" s="1">
+        <v>780.85106382978699</v>
+      </c>
+      <c r="S4" s="1">
+        <v>7.3191884470258204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <v>21.330343796711499</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5">
+        <v>776.595744680851</v>
+      </c>
+      <c r="G5">
+        <v>18.738220826171901</v>
+      </c>
+      <c r="H5" s="1">
+        <v>443.61702127659498</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.1800114581481198</v>
+      </c>
+      <c r="K5">
+        <v>784.04255319148899</v>
+      </c>
+      <c r="L5">
+        <v>23.866334775479501</v>
+      </c>
+      <c r="M5">
+        <v>440.42553191489299</v>
+      </c>
+      <c r="N5">
+        <v>2.6802188901400599</v>
+      </c>
+      <c r="P5">
+        <v>779.787234042553</v>
+      </c>
+      <c r="Q5">
+        <v>23.641913115628501</v>
+      </c>
+      <c r="R5" s="1">
+        <v>779.787234042553</v>
+      </c>
+      <c r="S5" s="1">
+        <v>9.1572334498903505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>100</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="6">
         <v>19.686098654708498</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6">
+        <v>444.68085106382898</v>
+      </c>
+      <c r="G6">
+        <v>12.8767853967877</v>
+      </c>
+      <c r="H6" s="1">
+        <v>191.48936170212701</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.52648215097097695</v>
+      </c>
+      <c r="K6">
+        <v>450</v>
+      </c>
+      <c r="L6">
+        <v>15.0514628894288</v>
+      </c>
+      <c r="M6">
+        <v>347.872340425532</v>
+      </c>
+      <c r="N6">
+        <v>2.1444516881013</v>
+      </c>
+      <c r="P6">
+        <v>448.936170212766</v>
+      </c>
+      <c r="Q6">
+        <v>15.218198700092801</v>
+      </c>
+      <c r="R6" s="10">
+        <v>443.61702127659498</v>
+      </c>
+      <c r="S6" s="10">
+        <v>3.2942175862818299</v>
+      </c>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>150</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>18.1913303437967</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7">
+        <v>348.936170212766</v>
+      </c>
+      <c r="G7">
+        <v>16.685236768802199</v>
+      </c>
+      <c r="H7" s="1">
+        <v>107.44680851063799</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.00223236334182</v>
+      </c>
+      <c r="K7">
+        <v>348.936170212766</v>
+      </c>
+      <c r="L7">
+        <v>14.9025069637882</v>
+      </c>
+      <c r="M7">
+        <v>298.936170212766</v>
+      </c>
+      <c r="N7">
+        <v>1.4577530176416</v>
+      </c>
+      <c r="P7">
+        <v>348.936170212766</v>
+      </c>
+      <c r="Q7">
+        <v>24.707520891364901</v>
+      </c>
+      <c r="R7" s="10">
+        <v>303.191489361702</v>
+      </c>
+      <c r="S7" s="10">
+        <v>2.6849601928129698</v>
+      </c>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>200</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="6">
         <v>17.443946188340799</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8">
+        <v>197.872340425532</v>
+      </c>
+      <c r="G8">
+        <v>21.085955866374199</v>
+      </c>
+      <c r="K8">
+        <v>297.872340425532</v>
+      </c>
+      <c r="L8">
+        <v>18.003318911870998</v>
+      </c>
+      <c r="M8">
+        <v>246.80851063829701</v>
+      </c>
+      <c r="N8">
+        <v>0.65844840870028698</v>
+      </c>
+      <c r="P8">
+        <v>301.063829787234</v>
+      </c>
+      <c r="Q8">
+        <v>23.742665797427801</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>250</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="6">
         <v>17.219730941704</v>
       </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9">
+        <v>147.872340425532</v>
+      </c>
+      <c r="G9">
+        <v>23.462928939726101</v>
+      </c>
+      <c r="K9">
+        <v>152.127659574468</v>
+      </c>
+      <c r="L9">
+        <v>28.032754499298601</v>
+      </c>
+      <c r="M9">
+        <v>146.808510638298</v>
+      </c>
+      <c r="N9">
+        <v>0.78843912364921898</v>
+      </c>
+      <c r="P9">
+        <v>252.127659574468</v>
+      </c>
+      <c r="Q9">
+        <v>21.4960785475809</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>300</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="6">
         <v>17.219730941704</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="K10">
+        <v>102.127659574468</v>
+      </c>
+      <c r="L10">
+        <v>27.9584740907564</v>
+      </c>
+      <c r="M10">
+        <v>97.872340425531803</v>
+      </c>
+      <c r="N10">
+        <v>1.3273671941365801</v>
+      </c>
+      <c r="P10">
+        <v>152.127659574468</v>
+      </c>
+      <c r="Q10">
+        <v>25.414370098184399</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>350</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="6">
         <v>17.668161434977499</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>30.910330113198601</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>400</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>18.452914798206201</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>450</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>19.8729446935724</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>500</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="6">
         <v>21.479820627802599</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>550</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="6">
         <v>23.609865470852</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>600</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="6">
         <v>26.2630792227204</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>650</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="6">
         <v>28.654708520179302</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>700</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="6">
         <v>32.242152466367699</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="261" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="41" spans="1:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="F41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+    </row>
+    <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:T41"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" xr:uid="{5F01B36E-FFD1-438F-9512-D46CEB7C98A2}"/>
+    <hyperlink ref="A42" r:id="rId1" xr:uid="{5F01B36E-FFD1-438F-9512-D46CEB7C98A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Computer Codes/Jupyter/Eurofer/Eurofer_data.xlsx
+++ b/Computer Codes/Jupyter/Eurofer/Eurofer_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes_QF\Computer Codes\Jupyter\Eurofer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\Repos\DatabaseCodes\Computer Codes\Jupyter\Eurofer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A41598-8CF6-4F28-8100-11BE071F6E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7787F6C-8684-4344-AFA6-E11A5BCCD4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="8" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="852" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="Eurofer_diffusivity" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="Eurofer_elastic" sheetId="10" r:id="rId7"/>
     <sheet name="Eurofer_strength" sheetId="7" r:id="rId8"/>
     <sheet name="Eurofer_ductility" sheetId="8" r:id="rId9"/>
-    <sheet name="Eurofer_creep" sheetId="11" r:id="rId10"/>
-    <sheet name="Eurofer_fatigue" sheetId="12" r:id="rId11"/>
-    <sheet name="Eurofer_chemical" sheetId="13" r:id="rId12"/>
+    <sheet name="Eurofer_toughness" sheetId="14" r:id="rId10"/>
+    <sheet name="Eurofer_creep" sheetId="11" r:id="rId11"/>
+    <sheet name="Eurofer_fatigue" sheetId="12" r:id="rId12"/>
+    <sheet name="Eurofer_chemical" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2231,17 +2232,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8953B6-FF81-4C42-8C9F-1BD7638290AD}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="26" width="12.54296875" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,13 +2250,13 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="45.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2265,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>295.59585492227899</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>8.1640711902113403E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>322.79792746113901</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>8.0789766407119004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>373.31606217616502</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>7.7536151279199106E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>472.79792746113901</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>7.5784204671857605E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>573.05699481865202</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>7.0728587319243599E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>673.31606217616502</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>6.4822024471635098E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>772.79792746114003</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>5.8014460511679598E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>873.05699481865202</v>
       </c>
@@ -2328,13 +2329,13 @@
         <v>5.0255839822024397E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="15"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>5</v>
       </c>
@@ -2355,33 +2356,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F380984-BC1C-4914-83CA-6C32A0D3A058}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2"/>
+    <col min="4" max="4" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>47</v>
       </c>
@@ -2403,7 +2418,7 @@
       </c>
       <c r="N1" s="15"/>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>95.557891687808393</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>88.682804290936701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>81.200483429553103</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>300</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>74.529005773187606</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1000</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>66.640813839669093</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3000</v>
       </c>
@@ -2627,7 +2642,7 @@
         <v>60.172496454184</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>10000</v>
       </c>
@@ -2659,7 +2674,7 @@
         <v>52.487914261171703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>30000</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>45.612377394674198</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>100000</v>
       </c>
@@ -2723,7 +2738,7 @@
         <v>37.927795201662001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>300000</v>
       </c>
@@ -2755,7 +2770,7 @@
         <v>30.849547533909899</v>
       </c>
     </row>
-    <row r="32" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="13:23" x14ac:dyDescent="0.35">
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
@@ -2768,7 +2783,7 @@
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
     </row>
-    <row r="34" spans="1:23" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>52</v>
       </c>
@@ -2812,7 +2827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
   <dimension ref="A1:T52"/>
   <sheetViews>
@@ -2820,25 +2835,25 @@
       <selection activeCell="P52" sqref="P52:T52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="11" width="14.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="14" width="14.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="17" width="15.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="2"/>
-    <col min="19" max="20" width="15.28515625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="13.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="8" width="13.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="11" width="14.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="2"/>
+    <col min="13" max="14" width="14.7265625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="2"/>
+    <col min="16" max="17" width="15.26953125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="2"/>
+    <col min="19" max="20" width="15.26953125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
@@ -2868,7 +2883,7 @@
       </c>
       <c r="T1" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2912,7 +2927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>4.8638199999999996</v>
       </c>
@@ -2956,7 +2971,7 @@
         <v>1.81249999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>9.9451300000000007</v>
       </c>
@@ -3000,7 +3015,7 @@
         <v>1.61029411764705</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>24.994789999999998</v>
       </c>
@@ -3044,7 +3059,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>48.371310000000001</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>1.4117647058823499</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>100.27548</v>
       </c>
@@ -3132,7 +3147,7 @@
         <v>1.41911764705882</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>252.01924</v>
       </c>
@@ -3176,7 +3191,7 @@
         <v>1.41911764705882</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>494.47662000000003</v>
       </c>
@@ -3220,7 +3235,7 @@
         <v>1.4117647058823499</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>50270.617209999997</v>
       </c>
@@ -3264,7 +3279,7 @@
         <v>1.40808823529411</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>98633.9179</v>
       </c>
@@ -3302,7 +3317,7 @@
         <v>1.2242647058823499</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>207303.64079999999</v>
       </c>
@@ -3340,7 +3355,7 @@
         <v>1.01838235294117</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>506872.17005999997</v>
       </c>
@@ -3372,7 +3387,7 @@
         <v>0.91911764705882304</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1000000</v>
       </c>
@@ -3404,7 +3419,7 @@
         <v>0.91544117647058798</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D16" s="2">
         <v>1008287.14299</v>
       </c>
@@ -3424,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P17">
         <v>1608.5055696074701</v>
       </c>
@@ -3438,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P18">
         <v>1254.92984463937</v>
       </c>
@@ -3452,7 +3467,7 @@
         <v>0.81617647058823495</v>
       </c>
     </row>
-    <row r="19" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P19">
         <v>1352.9212213830299</v>
       </c>
@@ -3466,7 +3481,7 @@
         <v>0.81617647058823495</v>
       </c>
     </row>
-    <row r="20" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P20">
         <v>1472.54042762412</v>
       </c>
@@ -3480,7 +3495,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="21" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P21">
         <v>1528.95166956412</v>
       </c>
@@ -3494,7 +3509,7 @@
         <v>0.81985294117647001</v>
       </c>
     </row>
-    <row r="22" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P22">
         <v>1663.9047110839299</v>
       </c>
@@ -3508,7 +3523,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="23" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P23">
         <v>1551.94508748353</v>
       </c>
@@ -3522,7 +3537,7 @@
         <v>0.66176470588235303</v>
       </c>
     </row>
-    <row r="24" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P24">
         <v>2156.4207065729001</v>
       </c>
@@ -3536,7 +3551,7 @@
         <v>0.60294117647058798</v>
       </c>
     </row>
-    <row r="25" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P25">
         <v>2273.3309522936602</v>
       </c>
@@ -3550,7 +3565,7 @@
         <v>0.39705882352941102</v>
       </c>
     </row>
-    <row r="26" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P26">
         <v>2450.8443254601498</v>
       </c>
@@ -3564,7 +3579,7 @@
         <v>0.51102941176470495</v>
       </c>
     </row>
-    <row r="27" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P27">
         <v>3099.5348132387398</v>
       </c>
@@ -3578,7 +3593,7 @@
         <v>0.51102941176470495</v>
       </c>
     </row>
-    <row r="28" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P28">
         <v>5296.0195526859297</v>
       </c>
@@ -3592,7 +3607,7 @@
         <v>0.51102941176470495</v>
       </c>
     </row>
-    <row r="29" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P29">
         <v>5090.0575080803101</v>
       </c>
@@ -3600,7 +3615,7 @@
         <v>0.54411764705882304</v>
       </c>
     </row>
-    <row r="30" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P30">
         <v>5324.6432593392001</v>
       </c>
@@ -3608,7 +3623,7 @@
         <v>0.49264705882352899</v>
       </c>
     </row>
-    <row r="31" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P31">
         <v>7126.5797989979101</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>0.496323529411764</v>
       </c>
     </row>
-    <row r="32" spans="16:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="16:20" x14ac:dyDescent="0.35">
       <c r="P32">
         <v>8205.51119349898</v>
       </c>
@@ -3624,7 +3639,7 @@
         <v>0.496323529411764</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P33">
         <v>12154.970287534299</v>
       </c>
@@ -3632,7 +3647,7 @@
         <v>0.44852941176470501</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P34">
         <v>25018.3868587463</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>0.40073529411764702</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>45</v>
       </c>
@@ -3659,7 +3674,7 @@
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="52" spans="16:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P52" s="15" t="s">
         <v>61</v>
       </c>
@@ -3686,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DECAD-F51B-46B3-9AAB-81A8CA08E74C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3694,7 +3709,7 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3708,13 +3723,13 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="26" width="12.54296875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3724,7 +3739,7 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>296.10389610389598</v>
       </c>
@@ -3752,7 +3767,7 @@
         <v>454.68159000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>322.72727272727201</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>467.34913999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>348.05194805194799</v>
       </c>
@@ -3780,7 +3795,7 @@
         <v>488.52064999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>373.376623376623</v>
       </c>
@@ -3794,7 +3809,7 @@
         <v>509.65287000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>398.05194805194799</v>
       </c>
@@ -3808,7 +3823,7 @@
         <v>522.20258000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>423.376623376623</v>
       </c>
@@ -3822,7 +3837,7 @@
         <v>543.35445000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>447.402597402597</v>
       </c>
@@ -3836,7 +3851,7 @@
         <v>551.60307999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>472.72727272727201</v>
       </c>
@@ -3850,7 +3865,7 @@
         <v>572.75495000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>498.05194805194799</v>
       </c>
@@ -3864,7 +3879,7 @@
         <v>585.30466000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>522.72727272727195</v>
       </c>
@@ -3878,7 +3893,7 @@
         <v>610.73796000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>548.05194805194799</v>
       </c>
@@ -3892,7 +3907,7 @@
         <v>653.39520000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>572.72727272727195</v>
       </c>
@@ -3906,7 +3921,7 @@
         <v>721.85888999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>598.05194805194799</v>
       </c>
@@ -3920,7 +3935,7 @@
         <v>803.22581000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>622.72727272727195</v>
       </c>
@@ -3934,7 +3949,7 @@
         <v>901.79701999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>648.05194805194799</v>
       </c>
@@ -3948,7 +3963,7 @@
         <v>1026.1550500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>673.376623376623</v>
       </c>
@@ -3956,7 +3971,7 @@
         <v>583.95378690629002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>698.05194805194799</v>
       </c>
@@ -3964,7 +3979,7 @@
         <v>597.04749679075701</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>722.72727272727195</v>
       </c>
@@ -3972,7 +3987,7 @@
         <v>611.68164313221996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>747.40259740259705</v>
       </c>
@@ -3980,7 +3995,7 @@
         <v>628.62644415917805</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>773.376623376623</v>
       </c>
@@ -3988,7 +4003,7 @@
         <v>655.58408215661098</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>797.40259740259705</v>
       </c>
@@ -3996,7 +4011,7 @@
         <v>687.16302952503202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>822.72727272727195</v>
       </c>
@@ -4004,7 +4019,7 @@
         <v>721.05263157894694</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>847.40259740259705</v>
       </c>
@@ -4012,7 +4027,7 @@
         <v>764.18485237483901</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>872.72727272727195</v>
       </c>
@@ -4020,10 +4035,10 @@
         <v>801.155327342747</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="Y36" s="7"/>
     </row>
-    <row r="47" spans="1:25" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="285" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>8</v>
       </c>
@@ -4033,7 +4048,7 @@
       </c>
       <c r="E47" s="15"/>
     </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
@@ -4061,13 +4076,13 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="26" width="12.54296875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -4077,7 +4092,7 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4091,7 +4106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>295.83333333333297</v>
       </c>
@@ -4105,7 +4120,7 @@
         <v>28.158940000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>322.61904761904702</v>
       </c>
@@ -4119,7 +4134,7 @@
         <v>28.887419999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>372.61904761904702</v>
       </c>
@@ -4133,7 +4148,7 @@
         <v>29.748339999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>473.21428571428498</v>
       </c>
@@ -4147,7 +4162,7 @@
         <v>30.27815</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>572.61904761904702</v>
       </c>
@@ -4161,7 +4176,7 @@
         <v>30.344370000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>672.61904761904702</v>
       </c>
@@ -4175,7 +4190,7 @@
         <v>30.211919999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>772.61904761904702</v>
       </c>
@@ -4189,7 +4204,7 @@
         <v>29.947019999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>872.61904761904702</v>
       </c>
@@ -4203,7 +4218,7 @@
         <v>29.682120000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" s="2">
         <v>401.36986000000002</v>
       </c>
@@ -4211,7 +4226,7 @@
         <v>29.483440000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D13" s="2">
         <v>450.68493000000001</v>
       </c>
@@ -4219,7 +4234,7 @@
         <v>29.350989999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" s="2">
         <v>502.73973000000001</v>
       </c>
@@ -4227,7 +4242,7 @@
         <v>29.61589</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" s="2">
         <v>552.05479000000003</v>
       </c>
@@ -4235,7 +4250,7 @@
         <v>30.079470000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" s="2">
         <v>601.36986000000002</v>
       </c>
@@ -4243,10 +4258,10 @@
         <v>31.13907</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:22" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:22" ht="208.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>9</v>
       </c>
@@ -4256,12 +4271,12 @@
       </c>
       <c r="E33" s="15"/>
     </row>
-    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="V39" s="7"/>
     </row>
   </sheetData>
@@ -4287,17 +4302,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="4" width="16.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="15.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="10"/>
+    <col min="4" max="4" width="16.453125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4305,13 +4320,13 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4321,7 +4336,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>303.31797235022998</v>
       </c>
@@ -4329,7 +4344,7 @@
         <v>51.077844311377198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>327.64976958525301</v>
       </c>
@@ -4337,7 +4352,7 @@
         <v>54.550898203592801</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>344.23963133640501</v>
       </c>
@@ -4345,7 +4360,7 @@
         <v>56.467065868263397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>365.806451612903</v>
       </c>
@@ -4353,7 +4368,7 @@
         <v>59.101796407185603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>396.22119815668202</v>
       </c>
@@ -4361,7 +4376,7 @@
         <v>62.814371257485</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>423.31797235022998</v>
       </c>
@@ -4369,7 +4384,7 @@
         <v>66.407185628742496</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>450.41474654377799</v>
       </c>
@@ -4377,7 +4392,7 @@
         <v>69.281437125748496</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>467.00460829492999</v>
       </c>
@@ -4385,7 +4400,7 @@
         <v>71.437125748502893</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>497.41935483870901</v>
       </c>
@@ -4393,7 +4408,7 @@
         <v>75.508982035928099</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>523.41013824884703</v>
       </c>
@@ -4401,7 +4416,7 @@
         <v>77.425149700598794</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>545.52995391704997</v>
       </c>
@@ -4409,7 +4424,7 @@
         <v>81.137724550898199</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>577.05069124423903</v>
       </c>
@@ -4417,7 +4432,7 @@
         <v>84.730538922155603</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>601.935483870967</v>
       </c>
@@ -4425,7 +4440,7 @@
         <v>87.245508982035901</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>657.78801843317899</v>
       </c>
@@ -4433,7 +4448,7 @@
         <v>93.473053892215503</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>682.11981566820202</v>
       </c>
@@ -4441,7 +4456,7 @@
         <v>96.227544910179603</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>708.11059907834101</v>
       </c>
@@ -4449,7 +4464,7 @@
         <v>99.580838323353206</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>734.65437788018403</v>
       </c>
@@ -4457,7 +4472,7 @@
         <v>102.57485029940101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>763.41013824884703</v>
       </c>
@@ -4465,7 +4480,7 @@
         <v>105.808383233532</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>783.87096774193503</v>
       </c>
@@ -4473,7 +4488,7 @@
         <v>107.96407185628701</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>817.05069124423903</v>
       </c>
@@ -4481,7 +4496,7 @@
         <v>111.19760479041901</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>850.23041474654303</v>
       </c>
@@ -4489,7 +4504,7 @@
         <v>114.19161676646701</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>883.963133640553</v>
       </c>
@@ -4497,7 +4512,7 @@
         <v>117.425149700598</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>924.88479262672797</v>
       </c>
@@ -4505,16 +4520,16 @@
         <v>121.377245508982</v>
       </c>
     </row>
-    <row r="37" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="22:22" x14ac:dyDescent="0.35">
       <c r="V37" s="12"/>
     </row>
-    <row r="53" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="15"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>5</v>
       </c>
@@ -4541,18 +4556,18 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="16384" width="12.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -4568,7 +4583,7 @@
         <v>10.6898734177215</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>11.0443037974683</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>300</v>
       </c>
@@ -4584,7 +4599,7 @@
         <v>11.386075949366999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>400</v>
       </c>
@@ -4592,7 +4607,7 @@
         <v>11.6962025316455</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>500</v>
       </c>
@@ -4600,7 +4615,7 @@
         <v>11.987341772151799</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>600</v>
       </c>
@@ -4608,7 +4623,7 @@
         <v>12.246835443037901</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>700</v>
       </c>
@@ -4616,13 +4631,13 @@
         <v>12.487341772151799</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
@@ -4648,12 +4663,12 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="16384" width="12.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
@@ -4668,7 +4683,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -4691,7 +4706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>473.100871731008</v>
       </c>
@@ -4714,7 +4729,7 @@
         <v>8.3535353535353393E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>573.22540473225399</v>
       </c>
@@ -4737,7 +4752,7 @@
         <v>0.10090909090909</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>672.97633872976303</v>
       </c>
@@ -4760,7 +4775,7 @@
         <v>0.12030303030303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>772.72727272727195</v>
       </c>
@@ -4783,7 +4798,7 @@
         <v>0.14070707070707</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>872.851805728518</v>
       </c>
@@ -4806,11 +4821,11 @@
         <v>0.16292929292929201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4825,7 +4840,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>24</v>
       </c>
@@ -4847,7 +4862,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -4877,19 +4892,19 @@
       <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="12.81640625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4897,7 +4912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>17.541148288385699</v>
       </c>
@@ -4905,7 +4920,7 @@
         <v>33.767998351492601</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>147.82474306467799</v>
       </c>
@@ -4913,7 +4928,7 @@
         <v>32.228318264945997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>297.73587821652097</v>
       </c>
@@ -4921,7 +4936,7 @@
         <v>36.684439636298002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>447.708832393168</v>
       </c>
@@ -4929,7 +4944,7 @@
         <v>40.214563531926899</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>498.24588517116098</v>
       </c>
@@ -4937,7 +4952,7 @@
         <v>33.211627128248601</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>548.53566184993394</v>
       </c>
@@ -4945,7 +4960,7 @@
         <v>29.912680627463001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>599.16544316513398</v>
       </c>
@@ -4953,7 +4968,7 @@
         <v>21.520748010200101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>648.18792983540595</v>
       </c>
@@ -4961,7 +4976,7 @@
         <v>20.538083095072398</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>698.81771115060599</v>
       </c>
@@ -4969,7 +4984,7 @@
         <v>12.1461504778094</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="179.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>69</v>
       </c>
@@ -4993,12 +5008,12 @@
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="16384" width="12.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -5024,7 +5039,7 @@
       </c>
       <c r="T1" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -5062,7 +5077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -5138,7 +5153,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -5176,7 +5191,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>150</v>
       </c>
@@ -5214,7 +5229,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>200</v>
       </c>
@@ -5252,7 +5267,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>250</v>
       </c>
@@ -5290,7 +5305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>300</v>
       </c>
@@ -5310,7 +5325,7 @@
         <v>495.42626000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>350</v>
       </c>
@@ -5330,7 +5345,7 @@
         <v>466.57317999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>400</v>
       </c>
@@ -5350,7 +5365,7 @@
         <v>432.49275</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>450</v>
       </c>
@@ -5370,7 +5385,7 @@
         <v>389.26197000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>500</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>339.49808999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>550</v>
       </c>
@@ -5410,7 +5425,7 @@
         <v>276.65652999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>600</v>
       </c>
@@ -5430,7 +5445,7 @@
         <v>199.44013000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>650</v>
       </c>
@@ -5450,7 +5465,7 @@
         <v>105.22734</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>700</v>
       </c>
@@ -5458,7 +5473,7 @@
         <v>137.14859437750999</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>17</v>
       </c>
@@ -5481,7 +5496,7 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
     </row>
-    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
@@ -5511,16 +5526,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96129535-FEF3-45F0-8A22-F7741A343589}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="1"/>
+    <col min="1" max="16384" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -5545,7 +5560,7 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -5592,7 +5607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -5639,7 +5654,7 @@
         <v>7.3191884470258204</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>9.1572334498903505</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -5734,7 +5749,7 @@
       </c>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>150</v>
       </c>
@@ -5782,7 +5797,7 @@
       </c>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>200</v>
       </c>
@@ -5820,7 +5835,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>250</v>
       </c>
@@ -5858,7 +5873,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>300</v>
       </c>
@@ -5889,7 +5904,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>350</v>
       </c>
@@ -5908,7 +5923,7 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>400</v>
       </c>
@@ -5923,7 +5938,7 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>450</v>
       </c>
@@ -5938,7 +5953,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>500</v>
       </c>
@@ -5953,7 +5968,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>550</v>
       </c>
@@ -5968,7 +5983,7 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>600</v>
       </c>
@@ -5978,7 +5993,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>650</v>
       </c>
@@ -5988,7 +6003,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>700</v>
       </c>
@@ -5998,7 +6013,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="41" spans="1:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>19</v>
       </c>
@@ -6023,7 +6038,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>14</v>
       </c>
